--- a/medicine/Enfance/Julien_Abrahamer/Julien_Abrahamer.xlsx
+++ b/medicine/Enfance/Julien_Abrahamer/Julien_Abrahamer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Julien (Julius) Abrahamer (8 mai 1911, Cracovie, Pologne-10 mars 1944, Auschwitz) est un juif français d'origine polonaise, aide-comptable au bureau de Œuvre de secours aux enfants) (OSE) à Chambéry (Savoie). Il fait partie de la Résistance de  1942 au 8 février 1944. L'OSE à Chambéry aide les Juifs réfugiés dans le secteur occupé par les troupes italiennes. Il est déporté à Auschwitz par le Convoi No. 69, en date du 7 mars 1944.
 </t>
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Julien (Julius[1]) Abrahamer est né le 8 mai 1911 à Cracovie, en Pologne[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Julien (Julius) Abrahamer est né le 8 mai 1911 à Cracovie, en Pologne.
 Il est aide-comptable au bureau de l'Œuvre de secours aux enfants) (OSE) à Chambéry. L’organisation apporte une aide matérielle et morale aux Juifs réfugiés dans le secteur occupé par les troupes italiennes. 
 Fin 1943, les Allemands envahissent la région. 
-Le 8 février 1944, les Allemands arrêtent le personnel de l’OSE de Chambéry. Grâce à Julien Abrahamer, la secrétaire du service comptable peut s’échapper. Lui-même est arrêté[2]. Il est déporté, à 32 ans, du Camp de Drancy vers Auschwitz, par le Convoi No. 69, en date du 7 mars 1944, où il est assassiné.
-Sa dernière adresse est au 6, rue Basse du Château à Chambéry[1].
+Le 8 février 1944, les Allemands arrêtent le personnel de l’OSE de Chambéry. Grâce à Julien Abrahamer, la secrétaire du service comptable peut s’échapper. Lui-même est arrêté. Il est déporté, à 32 ans, du Camp de Drancy vers Auschwitz, par le Convoi No. 69, en date du 7 mars 1944, où il est assassiné.
+Sa dernière adresse est au 6, rue Basse du Château à Chambéry.
 </t>
         </is>
       </c>
